--- a/work/work.xlsx
+++ b/work/work.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Download\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2758C7-FC0B-4363-9BDE-CDCD0B2CA7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839BFF5-ECE5-49A3-A66C-AC2DAB9BBD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="25.02.06-" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>任务</t>
   </si>
@@ -35,13 +35,6 @@
   </si>
   <si>
     <t>Record</t>
-  </si>
-  <si>
-    <t>07-27 热水器又坏, 现象相同, 原因可能也相同, 这次灯会一直亮, (坏之前调了热水大小, 可能也跟这个有关)
-发现 anyrouter 已不可用</t>
-  </si>
-  <si>
-    <t>研究自动添加qq docs 内容的方法， 希望发送内容到某处即可每日自动添加当日内容到 qq docs， 减少切换页面带来的时间/思考损失. 比如发送内容到 qq 或 微信是最快接的方式</t>
   </si>
 </sst>
 </file>
@@ -313,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -321,10 +314,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,13 +332,13 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,16 +353,16 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,31 +404,55 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,38 +461,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,11 +782,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="25.02.06-"/>
-  <dimension ref="A1:Z376"/>
+  <dimension ref="A1:Z378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -804,7 +794,7 @@
     <col min="1" max="1" width="48.28515625" style="35" customWidth="1"/>
     <col min="2" max="2" width="77" style="23" customWidth="1"/>
     <col min="3" max="3" width="93.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="36" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="35" customWidth="1"/>
     <col min="6" max="6" width="42" style="35" customWidth="1"/>
     <col min="7" max="26" width="13.7109375" style="35" customWidth="1"/>
@@ -848,71 +838,11 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="66">
-      <c r="A2" s="5"/>
-      <c r="B2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="36">
-        <v>45867</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
+    <row r="2" spans="1:26" ht="16.5"/>
+    <row r="3" spans="1:26" ht="16.5"/>
     <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7"/>
       <c r="D4" s="10"/>
       <c r="E4" s="4"/>
@@ -938,7 +868,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="16.5">
+    <row r="5" spans="1:26" ht="26.25" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1220,6 +1150,9 @@
     </row>
     <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="4"/>
       <c r="F15" s="11"/>
       <c r="G15" s="4"/>
@@ -1245,7 +1178,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="4"/>
@@ -1273,9 +1206,6 @@
     </row>
     <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
       <c r="E17" s="4"/>
       <c r="F17" s="11"/>
       <c r="G17" s="4"/>
@@ -1301,7 +1231,7 @@
     </row>
     <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="4"/>
@@ -1443,9 +1373,9 @@
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1499,9 +1429,9 @@
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1581,7 +1511,7 @@
     </row>
     <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10"/>
       <c r="E28" s="4"/>
@@ -1609,8 +1539,8 @@
     </row>
     <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="5"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="10"/>
       <c r="E29" s="4"/>
       <c r="F29" s="11"/>
@@ -1637,7 +1567,7 @@
     </row>
     <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10"/>
       <c r="E30" s="4"/>
@@ -1665,8 +1595,8 @@
     </row>
     <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="10"/>
       <c r="E31" s="4"/>
       <c r="F31" s="11"/>
@@ -1862,9 +1792,10 @@
     <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -1887,60 +1818,59 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26" ht="16.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="16.5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="12"/>
@@ -2226,9 +2156,9 @@
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="18"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="19"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
@@ -2254,9 +2184,9 @@
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="18"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="19"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -2307,40 +2237,40 @@
       <c r="Z53" s="16"/>
     </row>
     <row r="54" spans="1:26" ht="16.5">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
     </row>
     <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="12"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
@@ -2363,32 +2293,32 @@
       <c r="Z55" s="16"/>
     </row>
     <row r="56" spans="1:26" ht="16.5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="12"/>
@@ -2618,9 +2548,9 @@
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="15"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="19"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -2646,9 +2576,9 @@
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="18"/>
+      <c r="D66" s="15"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="19"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -2674,7 +2604,7 @@
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="16"/>
       <c r="F67" s="19"/>
       <c r="G67" s="16"/>
@@ -2730,7 +2660,7 @@
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="18"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="16"/>
       <c r="F69" s="19"/>
       <c r="G69" s="16"/>
@@ -2842,7 +2772,7 @@
       <c r="A73" s="12"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="16"/>
       <c r="F73" s="19"/>
       <c r="G73" s="16"/>
@@ -2898,7 +2828,7 @@
       <c r="A75" s="12"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="18"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="16"/>
       <c r="F75" s="19"/>
       <c r="G75" s="16"/>
@@ -3010,7 +2940,7 @@
       <c r="A79" s="12"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="16"/>
       <c r="F79" s="19"/>
       <c r="G79" s="16"/>
@@ -3066,7 +2996,7 @@
       <c r="A81" s="12"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="18"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="16"/>
       <c r="F81" s="19"/>
       <c r="G81" s="16"/>
@@ -3178,7 +3108,7 @@
       <c r="A85" s="12"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="20"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="16"/>
       <c r="F85" s="19"/>
       <c r="G85" s="16"/>
@@ -3234,7 +3164,7 @@
       <c r="A87" s="12"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="18"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="16"/>
       <c r="F87" s="19"/>
       <c r="G87" s="16"/>
@@ -3346,7 +3276,7 @@
       <c r="A91" s="12"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="16"/>
       <c r="F91" s="19"/>
       <c r="G91" s="16"/>
@@ -3371,38 +3301,38 @@
       <c r="Z91" s="16"/>
     </row>
     <row r="92" spans="1:26" ht="16.5">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
     </row>
     <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="12"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14"/>
-      <c r="D93" s="18"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="16"/>
       <c r="F93" s="19"/>
       <c r="G93" s="16"/>
@@ -3427,32 +3357,32 @@
       <c r="Z93" s="16"/>
     </row>
     <row r="94" spans="1:26" ht="16.5">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-      <c r="W94" s="16"/>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="16"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
     </row>
     <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="12"/>
@@ -3598,7 +3528,7 @@
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="16"/>
       <c r="F100" s="19"/>
       <c r="G100" s="16"/>
@@ -3654,7 +3584,7 @@
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
-      <c r="D102" s="18"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="16"/>
       <c r="F102" s="19"/>
       <c r="G102" s="16"/>
@@ -3682,7 +3612,7 @@
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="14"/>
-      <c r="D103" s="20"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="16"/>
       <c r="F103" s="19"/>
       <c r="G103" s="16"/>
@@ -3710,7 +3640,7 @@
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="32"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="16"/>
       <c r="F104" s="19"/>
       <c r="G104" s="16"/>
@@ -3738,7 +3668,7 @@
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="14"/>
-      <c r="D105" s="32"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="16"/>
       <c r="F105" s="19"/>
       <c r="G105" s="16"/>
@@ -3766,7 +3696,7 @@
       <c r="A106" s="12"/>
       <c r="B106" s="13"/>
       <c r="C106" s="14"/>
-      <c r="D106" s="18"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="16"/>
       <c r="F106" s="19"/>
       <c r="G106" s="16"/>
@@ -3790,11 +3720,11 @@
       <c r="Y106" s="16"/>
       <c r="Z106" s="16"/>
     </row>
-    <row r="107" spans="1:26" ht="81" customHeight="1">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="12"/>
       <c r="B107" s="13"/>
       <c r="C107" s="14"/>
-      <c r="D107" s="20"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="16"/>
       <c r="F107" s="19"/>
       <c r="G107" s="16"/>
@@ -3821,7 +3751,7 @@
     <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="12"/>
       <c r="B108" s="13"/>
-      <c r="C108" s="21"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="18"/>
       <c r="E108" s="16"/>
       <c r="F108" s="19"/>
@@ -3846,11 +3776,11 @@
       <c r="Y108" s="16"/>
       <c r="Z108" s="16"/>
     </row>
-    <row r="109" spans="1:26" ht="16.5">
+    <row r="109" spans="1:26" ht="81" customHeight="1">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="18"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="16"/>
       <c r="F109" s="19"/>
       <c r="G109" s="16"/>
@@ -3904,7 +3834,7 @@
     </row>
     <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="12"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="14"/>
       <c r="D111" s="18"/>
       <c r="E111" s="16"/>
@@ -3933,7 +3863,7 @@
     <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="18"/>
       <c r="E112" s="16"/>
       <c r="F112" s="19"/>
@@ -3959,60 +3889,60 @@
       <c r="Z112" s="16"/>
     </row>
     <row r="113" spans="1:26" ht="16.5">
-      <c r="A113" s="5"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
-      <c r="Y113" s="4"/>
-      <c r="Z113" s="4"/>
-    </row>
-    <row r="114" spans="1:26" ht="60" customHeight="1">
-      <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="4"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="16"/>
+      <c r="W113" s="16"/>
+      <c r="X113" s="16"/>
+      <c r="Y113" s="16"/>
+      <c r="Z113" s="16"/>
+    </row>
+    <row r="114" spans="1:26" ht="16.5">
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="16"/>
+      <c r="Y114" s="16"/>
+      <c r="Z114" s="16"/>
     </row>
     <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="5"/>
@@ -4042,11 +3972,11 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" spans="1:26" ht="16.5">
+    <row r="116" spans="1:26" ht="60" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="8"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="4"/>
       <c r="F116" s="9"/>
       <c r="G116" s="4"/>
@@ -4099,32 +4029,32 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" spans="1:26" ht="16.5">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="16"/>
-      <c r="U118" s="16"/>
-      <c r="V118" s="16"/>
-      <c r="W118" s="16"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="16"/>
-      <c r="Z118" s="16"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
     </row>
     <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="5"/>
@@ -4154,39 +4084,39 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" spans="1:26" ht="16.5" hidden="1">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-    </row>
-    <row r="121" spans="1:26" ht="37.5" customHeight="1">
+    <row r="120" spans="1:26" ht="16.5">
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="16"/>
+    </row>
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
-      <c r="D121" s="22"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="4"/>
       <c r="F121" s="9"/>
       <c r="G121" s="4"/>
@@ -4210,7 +4140,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" spans="1:26" ht="16.5">
+    <row r="122" spans="1:26" ht="16.5" hidden="1">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
@@ -4238,11 +4168,11 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" spans="1:26" ht="16.5">
+    <row r="123" spans="1:26" ht="37.5" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="8"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="4"/>
       <c r="F123" s="9"/>
       <c r="G123" s="4"/>
@@ -4350,10 +4280,10 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A127" s="54"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="53"/>
+    <row r="127" spans="1:26" ht="16.5">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="8"/>
       <c r="E127" s="4"/>
       <c r="F127" s="9"/>
@@ -4378,10 +4308,10 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A128" s="50"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
+    <row r="128" spans="1:26" ht="16.5">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="8"/>
       <c r="E128" s="4"/>
       <c r="F128" s="9"/>
@@ -4406,10 +4336,10 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
+    <row r="129" spans="1:26" ht="48.75" customHeight="1">
+      <c r="A129" s="37"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="44"/>
       <c r="D129" s="8"/>
       <c r="E129" s="4"/>
       <c r="F129" s="9"/>
@@ -4434,10 +4364,10 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" spans="1:26" ht="16.5">
-      <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
+    <row r="130" spans="1:26" ht="43.5" customHeight="1">
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
       <c r="D130" s="8"/>
       <c r="E130" s="4"/>
       <c r="F130" s="9"/>
@@ -4548,8 +4478,8 @@
     </row>
     <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="5"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="41"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="8"/>
       <c r="E134" s="4"/>
       <c r="F134" s="9"/>
@@ -4576,8 +4506,8 @@
     </row>
     <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="5"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="45"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="8"/>
       <c r="E135" s="4"/>
       <c r="F135" s="9"/>
@@ -4604,8 +4534,8 @@
     </row>
     <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="41"/>
       <c r="D136" s="8"/>
       <c r="E136" s="4"/>
       <c r="F136" s="9"/>
@@ -4632,8 +4562,8 @@
     </row>
     <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="43"/>
       <c r="D137" s="8"/>
       <c r="E137" s="4"/>
       <c r="F137" s="9"/>
@@ -4744,7 +4674,7 @@
     </row>
     <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="5"/>
-      <c r="B141" s="49"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="8"/>
       <c r="E141" s="4"/>
@@ -4772,7 +4702,7 @@
     </row>
     <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="5"/>
-      <c r="B142" s="50"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="8"/>
       <c r="E142" s="4"/>
@@ -4800,7 +4730,7 @@
     </row>
     <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="7"/>
       <c r="D143" s="8"/>
       <c r="E143" s="4"/>
@@ -4828,9 +4758,9 @@
     </row>
     <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="7"/>
-      <c r="D144" s="22"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="4"/>
       <c r="F144" s="9"/>
       <c r="G144" s="4"/>
@@ -4886,7 +4816,7 @@
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
-      <c r="D146" s="8"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="4"/>
       <c r="F146" s="9"/>
       <c r="G146" s="4"/>
@@ -4912,7 +4842,7 @@
     </row>
     <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="5"/>
-      <c r="B147" s="49"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
       <c r="E147" s="4"/>
@@ -4940,7 +4870,7 @@
     </row>
     <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="5"/>
-      <c r="B148" s="50"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
       <c r="E148" s="4"/>
@@ -4968,9 +4898,9 @@
     </row>
     <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="7"/>
-      <c r="D149" s="22"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="4"/>
       <c r="F149" s="9"/>
       <c r="G149" s="4"/>
@@ -4996,7 +4926,7 @@
     </row>
     <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="7"/>
       <c r="D150" s="8"/>
       <c r="E150" s="4"/>
@@ -5026,7 +4956,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
-      <c r="D151" s="8"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="4"/>
       <c r="F151" s="9"/>
       <c r="G151" s="4"/>
@@ -5080,8 +5010,8 @@
     </row>
     <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="5"/>
-      <c r="B153" s="49"/>
-      <c r="C153" s="53"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="8"/>
       <c r="E153" s="4"/>
       <c r="F153" s="9"/>
@@ -5108,8 +5038,8 @@
     </row>
     <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="5"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="8"/>
       <c r="E154" s="4"/>
       <c r="F154" s="9"/>
@@ -5136,8 +5066,8 @@
     </row>
     <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="44"/>
       <c r="D155" s="8"/>
       <c r="E155" s="4"/>
       <c r="F155" s="9"/>
@@ -5164,8 +5094,8 @@
     </row>
     <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="8"/>
       <c r="E156" s="4"/>
       <c r="F156" s="9"/>
@@ -5276,7 +5206,7 @@
     </row>
     <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="5"/>
-      <c r="B160" s="49"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="7"/>
       <c r="D160" s="8"/>
       <c r="E160" s="4"/>
@@ -5304,7 +5234,7 @@
     </row>
     <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="5"/>
-      <c r="B161" s="50"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="7"/>
       <c r="D161" s="8"/>
       <c r="E161" s="4"/>
@@ -5332,7 +5262,7 @@
     </row>
     <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="5"/>
-      <c r="B162" s="6"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="7"/>
       <c r="D162" s="8"/>
       <c r="E162" s="4"/>
@@ -5360,7 +5290,8 @@
     </row>
     <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="5"/>
-      <c r="C163" s="6"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="8"/>
       <c r="E163" s="4"/>
       <c r="F163" s="9"/>
@@ -5415,7 +5346,6 @@
     </row>
     <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="5"/>
-      <c r="B165" s="24"/>
       <c r="C165" s="6"/>
       <c r="D165" s="8"/>
       <c r="E165" s="4"/>
@@ -5469,10 +5399,10 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" spans="1:26" ht="42" customHeight="1">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="5"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="51"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="6"/>
       <c r="D167" s="8"/>
       <c r="E167" s="4"/>
       <c r="F167" s="9"/>
@@ -5497,10 +5427,10 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" spans="1:26" ht="75.75" customHeight="1">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="5"/>
-      <c r="B168" s="46"/>
-      <c r="C168" s="52"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="8"/>
       <c r="E168" s="4"/>
       <c r="F168" s="9"/>
@@ -5525,10 +5455,10 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" spans="1:26" ht="16.5">
+    <row r="169" spans="1:26" ht="42" customHeight="1">
       <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="45"/>
       <c r="D169" s="8"/>
       <c r="E169" s="4"/>
       <c r="F169" s="9"/>
@@ -5553,10 +5483,10 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" spans="1:26" ht="16.5">
+    <row r="170" spans="1:26" ht="75.75" customHeight="1">
       <c r="A170" s="5"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="46"/>
       <c r="D170" s="8"/>
       <c r="E170" s="4"/>
       <c r="F170" s="9"/>
@@ -5615,7 +5545,7 @@
       <c r="C172" s="7"/>
       <c r="D172" s="8"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="25"/>
+      <c r="F172" s="9"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -5667,11 +5597,11 @@
     </row>
     <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="5"/>
-      <c r="B174" s="49"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="7"/>
-      <c r="D174" s="26"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="9"/>
+      <c r="F174" s="25"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -5695,9 +5625,9 @@
     </row>
     <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="5"/>
-      <c r="B175" s="50"/>
+      <c r="B175" s="6"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="26"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="4"/>
       <c r="F175" s="9"/>
       <c r="G175" s="4"/>
@@ -5723,9 +5653,9 @@
     </row>
     <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="7"/>
-      <c r="D176" s="8"/>
+      <c r="D176" s="26"/>
       <c r="E176" s="4"/>
       <c r="F176" s="9"/>
       <c r="G176" s="4"/>
@@ -5751,9 +5681,9 @@
     </row>
     <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="5"/>
-      <c r="B177" s="24"/>
+      <c r="B177" s="38"/>
       <c r="C177" s="7"/>
-      <c r="D177" s="8"/>
+      <c r="D177" s="26"/>
       <c r="E177" s="4"/>
       <c r="F177" s="9"/>
       <c r="G177" s="4"/>
@@ -5807,7 +5737,7 @@
     </row>
     <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="7"/>
       <c r="D179" s="8"/>
       <c r="E179" s="4"/>
@@ -5863,8 +5793,8 @@
     </row>
     <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="5"/>
-      <c r="B181" s="40"/>
-      <c r="C181" s="47"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="8"/>
       <c r="E181" s="4"/>
       <c r="F181" s="9"/>
@@ -5891,8 +5821,8 @@
     </row>
     <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="5"/>
-      <c r="B182" s="46"/>
-      <c r="C182" s="48"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="8"/>
       <c r="E182" s="4"/>
       <c r="F182" s="9"/>
@@ -5919,8 +5849,8 @@
     </row>
     <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="52"/>
       <c r="D183" s="8"/>
       <c r="E183" s="4"/>
       <c r="F183" s="9"/>
@@ -5947,8 +5877,8 @@
     </row>
     <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="53"/>
       <c r="D184" s="8"/>
       <c r="E184" s="4"/>
       <c r="F184" s="9"/>
@@ -6059,8 +5989,8 @@
     </row>
     <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="5"/>
-      <c r="B188" s="40"/>
-      <c r="C188" s="41"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="8"/>
       <c r="E188" s="4"/>
       <c r="F188" s="9"/>
@@ -6087,8 +6017,8 @@
     </row>
     <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="5"/>
-      <c r="B189" s="44"/>
-      <c r="C189" s="45"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="8"/>
       <c r="E189" s="4"/>
       <c r="F189" s="9"/>
@@ -6115,8 +6045,8 @@
     </row>
     <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="7"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="41"/>
       <c r="D190" s="8"/>
       <c r="E190" s="4"/>
       <c r="F190" s="9"/>
@@ -6143,8 +6073,8 @@
     </row>
     <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
+      <c r="B191" s="42"/>
+      <c r="C191" s="43"/>
       <c r="D191" s="8"/>
       <c r="E191" s="4"/>
       <c r="F191" s="9"/>
@@ -6255,9 +6185,9 @@
     </row>
     <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="5"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="41"/>
-      <c r="D195" s="26"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="8"/>
       <c r="E195" s="4"/>
       <c r="F195" s="9"/>
       <c r="G195" s="4"/>
@@ -6283,9 +6213,9 @@
     </row>
     <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="5"/>
-      <c r="B196" s="44"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="26"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="8"/>
       <c r="E196" s="4"/>
       <c r="F196" s="9"/>
       <c r="G196" s="4"/>
@@ -6311,9 +6241,9 @@
     </row>
     <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="8"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="41"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="4"/>
       <c r="F197" s="9"/>
       <c r="G197" s="4"/>
@@ -6339,9 +6269,9 @@
     </row>
     <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="8"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="26"/>
       <c r="E198" s="4"/>
       <c r="F198" s="9"/>
       <c r="G198" s="4"/>
@@ -6368,7 +6298,7 @@
     <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
-      <c r="C199" s="27"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="4"/>
       <c r="F199" s="9"/>
@@ -6396,7 +6326,7 @@
     <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="27"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="4"/>
       <c r="F200" s="9"/>
@@ -6423,8 +6353,8 @@
     </row>
     <row r="201" spans="1:26" ht="16.5">
       <c r="A201" s="5"/>
-      <c r="B201" s="40"/>
-      <c r="C201" s="41"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="27"/>
       <c r="D201" s="8"/>
       <c r="E201" s="4"/>
       <c r="F201" s="9"/>
@@ -6451,8 +6381,8 @@
     </row>
     <row r="202" spans="1:26" ht="16.5">
       <c r="A202" s="5"/>
-      <c r="B202" s="42"/>
-      <c r="C202" s="43"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="27"/>
       <c r="D202" s="8"/>
       <c r="E202" s="4"/>
       <c r="F202" s="9"/>
@@ -6479,8 +6409,8 @@
     </row>
     <row r="203" spans="1:26" ht="16.5">
       <c r="A203" s="5"/>
-      <c r="B203" s="44"/>
-      <c r="C203" s="45"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="41"/>
       <c r="D203" s="8"/>
       <c r="E203" s="4"/>
       <c r="F203" s="9"/>
@@ -6507,8 +6437,8 @@
     </row>
     <row r="204" spans="1:26" ht="16.5">
       <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="27"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="51"/>
       <c r="D204" s="8"/>
       <c r="E204" s="4"/>
       <c r="F204" s="9"/>
@@ -6535,7 +6465,8 @@
     </row>
     <row r="205" spans="1:26" ht="16.5">
       <c r="A205" s="5"/>
-      <c r="B205" s="28"/>
+      <c r="B205" s="42"/>
+      <c r="C205" s="43"/>
       <c r="D205" s="8"/>
       <c r="E205" s="4"/>
       <c r="F205" s="9"/>
@@ -6561,9 +6492,9 @@
       <c r="Z205" s="4"/>
     </row>
     <row r="206" spans="1:26" ht="16.5">
-      <c r="A206" s="29"/>
-      <c r="B206" s="30"/>
-      <c r="C206" s="29"/>
+      <c r="A206" s="5"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="27"/>
       <c r="D206" s="8"/>
       <c r="E206" s="4"/>
       <c r="F206" s="9"/>
@@ -6589,9 +6520,8 @@
       <c r="Z206" s="4"/>
     </row>
     <row r="207" spans="1:26" ht="16.5">
-      <c r="A207" s="29"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="29"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="28"/>
       <c r="D207" s="8"/>
       <c r="E207" s="4"/>
       <c r="F207" s="9"/>
@@ -6618,7 +6548,7 @@
     </row>
     <row r="208" spans="1:26" ht="16.5">
       <c r="A208" s="29"/>
-      <c r="B208" s="31"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="29"/>
       <c r="D208" s="8"/>
       <c r="E208" s="4"/>
@@ -6646,7 +6576,7 @@
     </row>
     <row r="209" spans="1:26" ht="16.5">
       <c r="A209" s="29"/>
-      <c r="B209" s="38"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="29"/>
       <c r="D209" s="8"/>
       <c r="E209" s="4"/>
@@ -6674,7 +6604,7 @@
     </row>
     <row r="210" spans="1:26" ht="16.5">
       <c r="A210" s="29"/>
-      <c r="B210" s="39"/>
+      <c r="B210" s="31"/>
       <c r="C210" s="29"/>
       <c r="D210" s="8"/>
       <c r="E210" s="4"/>
@@ -6702,11 +6632,11 @@
     </row>
     <row r="211" spans="1:26" ht="16.5">
       <c r="A211" s="29"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="32"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="8"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
+      <c r="F211" s="9"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
@@ -6729,12 +6659,12 @@
       <c r="Z211" s="4"/>
     </row>
     <row r="212" spans="1:26" ht="16.5">
-      <c r="A212" s="33"/>
-      <c r="B212" s="28"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="32"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="49"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="8"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
+      <c r="F212" s="9"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -6757,8 +6687,10 @@
       <c r="Z212" s="4"/>
     </row>
     <row r="213" spans="1:26" ht="16.5">
-      <c r="A213" s="4"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="32"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -6783,8 +6715,9 @@
       <c r="Z213" s="4"/>
     </row>
     <row r="214" spans="1:26" ht="16.5">
-      <c r="A214" s="4"/>
-      <c r="B214" s="34"/>
+      <c r="A214" s="33"/>
+      <c r="B214" s="28"/>
+      <c r="C214" s="31"/>
       <c r="D214" s="32"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -6811,8 +6744,7 @@
     </row>
     <row r="215" spans="1:26" ht="16.5">
       <c r="A215" s="4"/>
-      <c r="B215" s="34"/>
-      <c r="D215" s="32"/>
+      <c r="B215" s="29"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -6974,6 +6906,7 @@
     <row r="221" spans="1:26" ht="16.5">
       <c r="A221" s="4"/>
       <c r="B221" s="34"/>
+      <c r="D221" s="32"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -7000,6 +6933,7 @@
     <row r="222" spans="1:26" ht="16.5">
       <c r="A222" s="4"/>
       <c r="B222" s="34"/>
+      <c r="D222" s="32"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -11027,26 +10961,78 @@
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
     </row>
+    <row r="377" spans="1:26" ht="16.5">
+      <c r="A377" s="4"/>
+      <c r="B377" s="34"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
+      <c r="I377" s="4"/>
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="4"/>
+      <c r="M377" s="4"/>
+      <c r="N377" s="4"/>
+      <c r="O377" s="4"/>
+      <c r="P377" s="4"/>
+      <c r="Q377" s="4"/>
+      <c r="R377" s="4"/>
+      <c r="S377" s="4"/>
+      <c r="T377" s="4"/>
+      <c r="U377" s="4"/>
+      <c r="V377" s="4"/>
+      <c r="W377" s="4"/>
+      <c r="X377" s="4"/>
+      <c r="Y377" s="4"/>
+      <c r="Z377" s="4"/>
+    </row>
+    <row r="378" spans="1:26" ht="16.5">
+      <c r="A378" s="4"/>
+      <c r="B378" s="34"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
+      <c r="H378" s="4"/>
+      <c r="I378" s="4"/>
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+      <c r="L378" s="4"/>
+      <c r="M378" s="4"/>
+      <c r="N378" s="4"/>
+      <c r="O378" s="4"/>
+      <c r="P378" s="4"/>
+      <c r="Q378" s="4"/>
+      <c r="R378" s="4"/>
+      <c r="S378" s="4"/>
+      <c r="T378" s="4"/>
+      <c r="U378" s="4"/>
+      <c r="V378" s="4"/>
+      <c r="W378" s="4"/>
+      <c r="X378" s="4"/>
+      <c r="Y378" s="4"/>
+      <c r="Z378" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B134:C135"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B201:C203"/>
-    <mergeCell ref="B195:C196"/>
-    <mergeCell ref="B188:C189"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B203:C205"/>
+    <mergeCell ref="B197:C198"/>
+    <mergeCell ref="B190:C191"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B136:C137"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
